--- a/raw_data/20200818_saline/20200818_Sensor0_Test_45.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_45.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FBA7AB-AE61-4450-9641-6A05734556A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>39602.900414</v>
+        <v>39602.900414000003</v>
       </c>
       <c r="B2" s="1">
-        <v>11.000806</v>
+        <v>11.000806000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>910.060000</v>
+        <v>910.06</v>
       </c>
       <c r="D2" s="1">
-        <v>-175.628000</v>
+        <v>-175.62799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>39613.303506</v>
+        <v>39613.303505999997</v>
       </c>
       <c r="G2" s="1">
         <v>11.003695</v>
       </c>
       <c r="H2" s="1">
-        <v>924.602000</v>
+        <v>924.60199999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.852000</v>
+        <v>-150.852</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>39624.084923</v>
+        <v>39624.084923000002</v>
       </c>
       <c r="L2" s="1">
-        <v>11.006690</v>
+        <v>11.006690000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>944.637000</v>
+        <v>944.63699999999994</v>
       </c>
       <c r="N2" s="1">
-        <v>-113.312000</v>
+        <v>-113.312</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>39634.525373</v>
+        <v>39634.525372999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>11.009590</v>
+        <v>11.009589999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>952.015000</v>
+        <v>952.01499999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-100.459000</v>
+        <v>-100.459</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>39645.117895</v>
+        <v>39645.117895000003</v>
       </c>
       <c r="V2" s="1">
-        <v>11.012533</v>
+        <v>11.012532999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>959.678000</v>
+        <v>959.678</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.638100</v>
+        <v>-88.638099999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>39655.553752</v>
       </c>
       <c r="AA2" s="1">
-        <v>11.015432</v>
+        <v>11.015432000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.137000</v>
+        <v>968.13699999999994</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.300600</v>
+        <v>-80.300600000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>39666.122508</v>
@@ -571,58 +987,58 @@
         <v>11.018367</v>
       </c>
       <c r="AG2" s="1">
-        <v>973.715000</v>
+        <v>973.71500000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.161400</v>
+        <v>-80.1614</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>39676.882189</v>
+        <v>39676.882189000004</v>
       </c>
       <c r="AK2" s="1">
-        <v>11.021356</v>
+        <v>11.021356000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>982.159000</v>
+        <v>982.15899999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.102600</v>
+        <v>-88.102599999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>39687.476239</v>
+        <v>39687.476239000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.024299</v>
+        <v>11.024298999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>991.543000</v>
+        <v>991.54300000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>39698.185858</v>
+        <v>39698.185857999997</v>
       </c>
       <c r="AU2" s="1">
         <v>11.027274</v>
       </c>
       <c r="AV2" s="1">
-        <v>1003.030000</v>
+        <v>1003.03</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.842000</v>
+        <v>-124.842</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>39709.003137</v>
@@ -631,225 +1047,225 @@
         <v>11.030279</v>
       </c>
       <c r="BA2" s="1">
-        <v>1012.660000</v>
+        <v>1012.66</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.729000</v>
+        <v>-143.72900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>39719.616502</v>
+        <v>39719.616501999997</v>
       </c>
       <c r="BE2" s="1">
         <v>11.033227</v>
       </c>
       <c r="BF2" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.394000</v>
+        <v>-229.39400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>39730.279030</v>
+        <v>39730.279029999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.036189</v>
       </c>
       <c r="BK2" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.389000</v>
+        <v>-367.38900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>39741.382936</v>
+        <v>39741.382936000002</v>
       </c>
       <c r="BO2" s="1">
         <v>11.039273</v>
       </c>
       <c r="BP2" s="1">
-        <v>1269.260000</v>
+        <v>1269.26</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-581.413000</v>
+        <v>-581.41300000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>39752.318730</v>
+        <v>39752.318729999999</v>
       </c>
       <c r="BT2" s="1">
         <v>11.042311</v>
       </c>
       <c r="BU2" s="1">
-        <v>1418.430000</v>
+        <v>1418.43</v>
       </c>
       <c r="BV2" s="1">
-        <v>-810.869000</v>
+        <v>-810.86900000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>39763.132540</v>
+        <v>39763.132539999999</v>
       </c>
       <c r="BY2" s="1">
         <v>11.045315</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1581.940000</v>
+        <v>1581.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1050.350000</v>
+        <v>-1050.3499999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>39774.023662</v>
       </c>
       <c r="CD2" s="1">
-        <v>11.048340</v>
+        <v>11.04834</v>
       </c>
       <c r="CE2" s="1">
-        <v>1997.340000</v>
+        <v>1997.34</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1611.970000</v>
+        <v>-1611.97</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>39603.617164</v>
+        <v>39603.617164000003</v>
       </c>
       <c r="B3" s="1">
-        <v>11.001005</v>
+        <v>11.001004999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>910.193000</v>
+        <v>910.19299999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-175.726000</v>
+        <v>-175.726</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>39614.028656</v>
+        <v>39614.028656000002</v>
       </c>
       <c r="G3" s="1">
         <v>11.003897</v>
       </c>
       <c r="H3" s="1">
-        <v>924.371000</v>
+        <v>924.37099999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-151.182000</v>
+        <v>-151.18199999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>39624.430290</v>
+        <v>39624.430289999997</v>
       </c>
       <c r="L3" s="1">
         <v>11.006786</v>
       </c>
       <c r="M3" s="1">
-        <v>944.824000</v>
+        <v>944.82399999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-113.323000</v>
+        <v>-113.32299999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>39634.910757</v>
+        <v>39634.910756999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.009697</v>
+        <v>11.009696999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>952.023000</v>
+        <v>952.02300000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-100.487000</v>
+        <v>-100.48699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>39645.480968</v>
+        <v>39645.480968000003</v>
       </c>
       <c r="V3" s="1">
         <v>11.012634</v>
       </c>
       <c r="W3" s="1">
-        <v>959.590000</v>
+        <v>959.59</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.622500</v>
+        <v>-88.622500000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>39656.243196</v>
+        <v>39656.243196000003</v>
       </c>
       <c r="AA3" s="1">
         <v>11.015623</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.158000</v>
+        <v>968.15800000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.227700</v>
+        <v>-80.227699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>39666.809931</v>
+        <v>39666.809931000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.018558</v>
+        <v>11.018558000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>973.732000</v>
+        <v>973.73199999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.163400</v>
+        <v>-80.163399999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>39677.311260</v>
+        <v>39677.311260000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>11.021475</v>
+        <v>11.021475000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>982.130000</v>
+        <v>982.13</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.107400</v>
+        <v>-88.107399999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>39687.906766</v>
@@ -858,255 +1274,255 @@
         <v>11.024419</v>
       </c>
       <c r="AQ3" s="1">
-        <v>991.543000</v>
+        <v>991.54300000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.153000</v>
+        <v>-103.15300000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>39698.576240</v>
+        <v>39698.576240000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.027382</v>
+        <v>11.027381999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1003.000000</v>
+        <v>1003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.827000</v>
+        <v>-124.827</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>39709.383074</v>
+        <v>39709.383073999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.030384</v>
       </c>
       <c r="BA3" s="1">
-        <v>1012.700000</v>
+        <v>1012.7</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.738000</v>
+        <v>-143.738</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>39719.997956</v>
+        <v>39719.997955999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>11.033333</v>
+        <v>11.033333000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.377000</v>
+        <v>-229.37700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>39730.695671</v>
+        <v>39730.695671000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.036304</v>
+        <v>11.036303999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1137.360000</v>
+        <v>1137.3599999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.407000</v>
+        <v>-367.40699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>39741.805527</v>
+        <v>39741.805526999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.039390</v>
+        <v>11.039389999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-581.484000</v>
+        <v>-581.48400000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>39752.462073</v>
+        <v>39752.462073000002</v>
       </c>
       <c r="BT3" s="1">
         <v>11.042351</v>
       </c>
       <c r="BU3" s="1">
-        <v>1418.450000</v>
+        <v>1418.45</v>
       </c>
       <c r="BV3" s="1">
-        <v>-810.864000</v>
+        <v>-810.86400000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>39763.628036</v>
+        <v>39763.628036000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.045452</v>
+        <v>11.045451999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1582.060000</v>
+        <v>1582.06</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>39774.616416</v>
+        <v>39774.616415999997</v>
       </c>
       <c r="CD3" s="1">
         <v>11.048505</v>
       </c>
       <c r="CE3" s="1">
-        <v>1997.760000</v>
+        <v>1997.76</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1609.420000</v>
+        <v>-1609.42</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>39603.960367</v>
       </c>
       <c r="B4" s="1">
-        <v>11.001100</v>
+        <v>11.001099999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>910.611000</v>
+        <v>910.61099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-175.311000</v>
+        <v>-175.31100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>39614.374863</v>
+        <v>39614.374862999997</v>
       </c>
       <c r="G4" s="1">
-        <v>11.003993</v>
+        <v>11.003992999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>924.971000</v>
+        <v>924.971</v>
       </c>
       <c r="I4" s="1">
-        <v>-150.661000</v>
+        <v>-150.661</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>39624.777955</v>
+        <v>39624.777954999998</v>
       </c>
       <c r="L4" s="1">
         <v>11.006883</v>
       </c>
       <c r="M4" s="1">
-        <v>944.812000</v>
+        <v>944.81200000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-113.343000</v>
+        <v>-113.343</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>39635.292680</v>
+        <v>39635.292679999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>11.009804</v>
+        <v>11.009804000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>952.027000</v>
+        <v>952.02700000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-100.538000</v>
+        <v>-100.538</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>39646.132972</v>
+        <v>39646.132971999999</v>
       </c>
       <c r="V4" s="1">
         <v>11.012815</v>
       </c>
       <c r="W4" s="1">
-        <v>959.646000</v>
+        <v>959.64599999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.674900</v>
+        <v>-88.674899999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>39656.636984</v>
+        <v>39656.636983999997</v>
       </c>
       <c r="AA4" s="1">
         <v>11.015732</v>
       </c>
       <c r="AB4" s="1">
-        <v>968.182000</v>
+        <v>968.18200000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.270900</v>
+        <v>-80.270899999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>39667.189383</v>
+        <v>39667.189382999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.018664</v>
+        <v>11.018663999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>973.738000</v>
+        <v>973.73800000000006</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.178300</v>
+        <v>-80.178299999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>39677.657435</v>
+        <v>39677.657435000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.021572</v>
+        <v>11.021572000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>982.129000</v>
+        <v>982.12900000000002</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.107400</v>
+        <v>-88.107399999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>39688.263391</v>
@@ -1115,118 +1531,118 @@
         <v>11.024518</v>
       </c>
       <c r="AQ4" s="1">
-        <v>991.546000</v>
+        <v>991.54600000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.143000</v>
+        <v>-103.143</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>39698.959616</v>
       </c>
       <c r="AU4" s="1">
-        <v>11.027489</v>
+        <v>11.027488999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1003.010000</v>
+        <v>1003.01</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.865000</v>
+        <v>-124.86499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>39709.804641</v>
+        <v>39709.804641000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>11.030501</v>
+        <v>11.030500999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.737000</v>
+        <v>-143.73699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>39720.415060</v>
+        <v>39720.415059999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>11.033449</v>
+        <v>11.033448999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.412000</v>
+        <v>-229.41200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>39731.054742</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.036404</v>
+        <v>11.036403999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1137.340000</v>
+        <v>1137.3399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.398000</v>
+        <v>-367.39800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>39742.226135</v>
+        <v>39742.226134999997</v>
       </c>
       <c r="BO4" s="1">
         <v>11.039507</v>
       </c>
       <c r="BP4" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-581.507000</v>
+        <v>-581.50699999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>39752.877722</v>
+        <v>39752.877721999997</v>
       </c>
       <c r="BT4" s="1">
-        <v>11.042466</v>
+        <v>11.042465999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1418.450000</v>
+        <v>1418.45</v>
       </c>
       <c r="BV4" s="1">
-        <v>-810.996000</v>
+        <v>-810.99599999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>39764.056057</v>
+        <v>39764.056057000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.045571</v>
+        <v>11.045571000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1581.910000</v>
+        <v>1581.91</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1050.520000</v>
+        <v>-1050.52</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>39775.158508</v>
@@ -1235,45 +1651,45 @@
         <v>11.048655</v>
       </c>
       <c r="CE4" s="1">
-        <v>1996.550000</v>
+        <v>1996.55</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1611.350000</v>
+        <v>-1611.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>39604.303365</v>
       </c>
       <c r="B5" s="1">
-        <v>11.001195</v>
+        <v>11.001194999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>910.457000</v>
+        <v>910.45699999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-175.351000</v>
+        <v>-175.351</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>39614.718595</v>
+        <v>39614.718594999998</v>
       </c>
       <c r="G5" s="1">
-        <v>11.004088</v>
+        <v>11.004087999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>924.440000</v>
+        <v>924.44</v>
       </c>
       <c r="I5" s="1">
-        <v>-151.366000</v>
+        <v>-151.36600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>39625.436641</v>
@@ -1282,43 +1698,43 @@
         <v>11.007066</v>
       </c>
       <c r="M5" s="1">
-        <v>944.787000</v>
+        <v>944.78700000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-113.272000</v>
+        <v>-113.27200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>39635.986548</v>
+        <v>39635.986548000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>11.009996</v>
+        <v>11.009995999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>951.972000</v>
+        <v>951.97199999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-100.495000</v>
+        <v>-100.495</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>39646.509200</v>
+        <v>39646.5092</v>
       </c>
       <c r="V5" s="1">
         <v>11.012919</v>
       </c>
       <c r="W5" s="1">
-        <v>959.583000</v>
+        <v>959.58299999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.600500</v>
+        <v>-88.600499999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>39656.983687</v>
@@ -1327,572 +1743,572 @@
         <v>11.015829</v>
       </c>
       <c r="AB5" s="1">
-        <v>968.256000</v>
+        <v>968.25599999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.284700</v>
+        <v>-80.284700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>39667.536073</v>
+        <v>39667.536073000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.018760</v>
+        <v>11.01876</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.745000</v>
+        <v>973.745</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.157500</v>
+        <v>-80.157499999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>39678.005131</v>
+        <v>39678.005130999998</v>
       </c>
       <c r="AK5" s="1">
         <v>11.021668</v>
       </c>
       <c r="AL5" s="1">
-        <v>982.158000</v>
+        <v>982.15800000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.126000</v>
+        <v>-88.126000000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>39688.623021</v>
+        <v>39688.623020999999</v>
       </c>
       <c r="AP5" s="1">
         <v>11.024618</v>
       </c>
       <c r="AQ5" s="1">
-        <v>991.544000</v>
+        <v>991.54399999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.165000</v>
+        <v>-103.16500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>39699.383697</v>
+        <v>39699.383696999997</v>
       </c>
       <c r="AU5" s="1">
         <v>11.027607</v>
       </c>
       <c r="AV5" s="1">
-        <v>1003.020000</v>
+        <v>1003.02</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.855000</v>
+        <v>-124.855</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>39710.101249</v>
+        <v>39710.101248999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>11.030584</v>
+        <v>11.030583999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.740000</v>
+        <v>-143.74</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>39720.719108</v>
+        <v>39720.719107999998</v>
       </c>
       <c r="BE5" s="1">
         <v>11.033533</v>
       </c>
       <c r="BF5" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.399000</v>
+        <v>-229.399</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>39731.429253</v>
+        <v>39731.429253000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>11.036508</v>
       </c>
       <c r="BK5" s="1">
-        <v>1137.360000</v>
+        <v>1137.3599999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.406000</v>
+        <v>-367.40600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>39742.870475</v>
+        <v>39742.870475000003</v>
       </c>
       <c r="BO5" s="1">
         <v>11.039686</v>
       </c>
       <c r="BP5" s="1">
-        <v>1269.250000</v>
+        <v>1269.25</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-581.463000</v>
+        <v>-581.46299999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>39753.308248</v>
+        <v>39753.308248000001</v>
       </c>
       <c r="BT5" s="1">
         <v>11.042586</v>
       </c>
       <c r="BU5" s="1">
-        <v>1418.460000</v>
+        <v>1418.46</v>
       </c>
       <c r="BV5" s="1">
-        <v>-810.960000</v>
+        <v>-810.96</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>39764.481130</v>
+        <v>39764.48113</v>
       </c>
       <c r="BY5" s="1">
-        <v>11.045689</v>
+        <v>11.045688999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1581.880000</v>
+        <v>1581.88</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>39775.696170</v>
+        <v>39775.696170000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>11.048804</v>
+        <v>11.048804000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1998.240000</v>
+        <v>1998.24</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1611.040000</v>
+        <v>-1611.04</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>39604.952364</v>
+        <v>39604.952363999997</v>
       </c>
       <c r="B6" s="1">
         <v>11.001376</v>
       </c>
       <c r="C6" s="1">
-        <v>910.544000</v>
+        <v>910.54399999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-175.627000</v>
+        <v>-175.62700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>39615.376286</v>
+        <v>39615.376285999999</v>
       </c>
       <c r="G6" s="1">
-        <v>11.004271</v>
+        <v>11.004270999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>924.688000</v>
+        <v>924.68799999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-150.663000</v>
+        <v>-150.66300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>39625.813632</v>
+        <v>39625.813631999998</v>
       </c>
       <c r="L6" s="1">
-        <v>11.007170</v>
+        <v>11.00717</v>
       </c>
       <c r="M6" s="1">
-        <v>944.714000</v>
+        <v>944.71400000000006</v>
       </c>
       <c r="N6" s="1">
-        <v>-113.433000</v>
+        <v>-113.43300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>39636.327300</v>
+        <v>39636.327299999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>11.010091</v>
+        <v>11.010090999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>951.963000</v>
+        <v>951.96299999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-100.491000</v>
+        <v>-100.491</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>39646.851413</v>
+        <v>39646.851412999997</v>
       </c>
       <c r="V6" s="1">
         <v>11.013014</v>
       </c>
       <c r="W6" s="1">
-        <v>959.584000</v>
+        <v>959.58399999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.598500</v>
+        <v>-88.598500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>39657.334855</v>
+        <v>39657.334855000001</v>
       </c>
       <c r="AA6" s="1">
         <v>11.015926</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.112000</v>
+        <v>968.11199999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.279900</v>
+        <v>-80.279899999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>39667.878838</v>
+        <v>39667.878837999997</v>
       </c>
       <c r="AF6" s="1">
         <v>11.018855</v>
       </c>
       <c r="AG6" s="1">
-        <v>973.725000</v>
+        <v>973.72500000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.188400</v>
+        <v>-80.188400000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>39678.428255</v>
+        <v>39678.428254999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>11.021786</v>
+        <v>11.021786000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>982.114000</v>
+        <v>982.11400000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.118400</v>
+        <v>-88.118399999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>39689.070381</v>
+        <v>39689.070380999998</v>
       </c>
       <c r="AP6" s="1">
         <v>11.024742</v>
       </c>
       <c r="AQ6" s="1">
-        <v>991.560000</v>
+        <v>991.56</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>39699.687743</v>
+        <v>39699.687743000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>11.027691</v>
+        <v>11.027691000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1003.020000</v>
+        <v>1003.02</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>39710.460848</v>
+        <v>39710.460848000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.030684</v>
+        <v>11.030684000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.723000</v>
+        <v>-143.72300000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>39721.081219</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.033634</v>
+        <v>11.033633999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.402000</v>
+        <v>-229.40199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>39731.805721</v>
+        <v>39731.805720999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.036613</v>
+        <v>11.036612999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.419000</v>
+        <v>-367.41899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>39743.507548</v>
+        <v>39743.507548000001</v>
       </c>
       <c r="BO6" s="1">
         <v>11.039863</v>
       </c>
       <c r="BP6" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-581.475000</v>
+        <v>-581.47500000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>39753.736295</v>
+        <v>39753.736295000002</v>
       </c>
       <c r="BT6" s="1">
         <v>11.042705</v>
       </c>
       <c r="BU6" s="1">
-        <v>1418.460000</v>
+        <v>1418.46</v>
       </c>
       <c r="BV6" s="1">
-        <v>-810.999000</v>
+        <v>-810.99900000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>39764.898797</v>
+        <v>39764.898797000002</v>
       </c>
       <c r="BY6" s="1">
         <v>11.045805</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1581.940000</v>
+        <v>1581.94</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>39776.237307</v>
+        <v>39776.237307000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.048955</v>
+        <v>11.048954999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1997.010000</v>
+        <v>1997.01</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1610.240000</v>
+        <v>-1610.24</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>39605.325852</v>
+        <v>39605.325852000002</v>
       </c>
       <c r="B7" s="1">
         <v>11.001479</v>
       </c>
       <c r="C7" s="1">
-        <v>910.050000</v>
+        <v>910.05</v>
       </c>
       <c r="D7" s="1">
-        <v>-175.787000</v>
+        <v>-175.78700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>39615.752750</v>
+        <v>39615.75275</v>
       </c>
       <c r="G7" s="1">
-        <v>11.004376</v>
+        <v>11.004376000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>924.768000</v>
+        <v>924.76800000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-151.083000</v>
+        <v>-151.083</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>39626.159347</v>
+        <v>39626.159347000001</v>
       </c>
       <c r="L7" s="1">
         <v>11.007266</v>
       </c>
       <c r="M7" s="1">
-        <v>944.688000</v>
+        <v>944.68799999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-113.357000</v>
+        <v>-113.357</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>39636.679954</v>
+        <v>39636.679953999999</v>
       </c>
       <c r="Q7" s="1">
         <v>11.010189</v>
       </c>
       <c r="R7" s="1">
-        <v>952.003000</v>
+        <v>952.00300000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-100.456000</v>
+        <v>-100.456</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>39647.201099</v>
+        <v>39647.201098999998</v>
       </c>
       <c r="V7" s="1">
         <v>11.013111</v>
       </c>
       <c r="W7" s="1">
-        <v>959.616000</v>
+        <v>959.61599999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.651800</v>
+        <v>-88.651799999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>39657.749511</v>
+        <v>39657.749511000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>11.016042</v>
+        <v>11.016042000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>968.024000</v>
+        <v>968.024</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.261700</v>
+        <v>-80.261700000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>39668.296936</v>
+        <v>39668.296935999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.018971</v>
+        <v>11.018971000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>973.721000</v>
+        <v>973.721</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.153700</v>
+        <v>-80.153700000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>39678.710474</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.021864</v>
+        <v>11.021864000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>982.168000</v>
+        <v>982.16800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.110100</v>
+        <v>-88.110100000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>39689.347645</v>
+        <v>39689.347645000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>11.024819</v>
+        <v>11.024819000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>991.524000</v>
+        <v>991.524</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>39700.051345</v>
@@ -1901,13 +2317,13 @@
         <v>11.027792</v>
       </c>
       <c r="AV7" s="1">
-        <v>1003.030000</v>
+        <v>1003.03</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>39710.818496</v>
@@ -1916,73 +2332,73 @@
         <v>11.030783</v>
       </c>
       <c r="BA7" s="1">
-        <v>1012.670000</v>
+        <v>1012.67</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.725000</v>
+        <v>-143.72499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>39721.442770</v>
+        <v>39721.442770000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>11.033734</v>
+        <v>11.033734000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.409000</v>
+        <v>-229.40899999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>39732.577957</v>
+        <v>39732.577957000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>11.036827</v>
+        <v>11.036827000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1137.350000</v>
+        <v>1137.3499999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.388000</v>
+        <v>-367.38799999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>39743.727557</v>
+        <v>39743.727556999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>11.039924</v>
+        <v>11.039923999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1269.210000</v>
+        <v>1269.21</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-581.479000</v>
+        <v>-581.47900000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>39754.147480</v>
+        <v>39754.14748</v>
       </c>
       <c r="BT7" s="1">
         <v>11.042819</v>
       </c>
       <c r="BU7" s="1">
-        <v>1418.380000</v>
+        <v>1418.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-811.023000</v>
+        <v>-811.02300000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>39765.328297</v>
@@ -1991,802 +2407,802 @@
         <v>11.045925</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1581.990000</v>
+        <v>1581.99</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>39776.777945</v>
+        <v>39776.777945000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.049105</v>
+        <v>11.049105000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1997.850000</v>
+        <v>1997.85</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1611.940000</v>
+        <v>-1611.94</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>39605.669083</v>
+        <v>39605.669083000001</v>
       </c>
       <c r="B8" s="1">
-        <v>11.001575</v>
+        <v>11.001575000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>909.958000</v>
+        <v>909.95799999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-175.924000</v>
+        <v>-175.92400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>39616.087054</v>
+        <v>39616.087054000003</v>
       </c>
       <c r="G8" s="1">
         <v>11.004469</v>
       </c>
       <c r="H8" s="1">
-        <v>924.891000</v>
+        <v>924.89099999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.795000</v>
+        <v>-150.79499999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>39626.506015</v>
+        <v>39626.506014999999</v>
       </c>
       <c r="L8" s="1">
         <v>11.007363</v>
       </c>
       <c r="M8" s="1">
-        <v>944.662000</v>
+        <v>944.66200000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-113.254000</v>
+        <v>-113.254</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>39637.095629</v>
+        <v>39637.095629000003</v>
       </c>
       <c r="Q8" s="1">
         <v>11.010304</v>
       </c>
       <c r="R8" s="1">
-        <v>952.021000</v>
+        <v>952.02099999999996</v>
       </c>
       <c r="S8" s="1">
-        <v>-100.468000</v>
+        <v>-100.468</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>39647.623685</v>
+        <v>39647.623684999999</v>
       </c>
       <c r="V8" s="1">
-        <v>11.013229</v>
+        <v>11.013229000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>959.595000</v>
+        <v>959.59500000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.515600</v>
+        <v>-88.515600000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>39658.030744</v>
+        <v>39658.030744000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>11.016120</v>
+        <v>11.016120000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>968.109000</v>
+        <v>968.10900000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.369200</v>
+        <v>-80.369200000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>39668.567255</v>
+        <v>39668.567255000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>11.019046</v>
+        <v>11.019045999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.700000</v>
+        <v>973.7</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.181200</v>
+        <v>-80.181200000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>39679.060153</v>
+        <v>39679.060152999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>11.021961</v>
+        <v>11.021960999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>982.145000</v>
+        <v>982.14499999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.137500</v>
+        <v>-88.137500000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>39689.704269</v>
+        <v>39689.704269000002</v>
       </c>
       <c r="AP8" s="1">
         <v>11.024918</v>
       </c>
       <c r="AQ8" s="1">
-        <v>991.525000</v>
+        <v>991.52499999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>39700.415374</v>
+        <v>39700.415373999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.027893</v>
+        <v>11.027893000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1003.020000</v>
+        <v>1003.02</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.852000</v>
+        <v>-124.852</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>39711.543131</v>
+        <v>39711.543130999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.030984</v>
       </c>
       <c r="BA8" s="1">
-        <v>1012.700000</v>
+        <v>1012.7</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.747000</v>
+        <v>-143.74700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>39722.163488</v>
+        <v>39722.163487999998</v>
       </c>
       <c r="BE8" s="1">
         <v>11.033934</v>
       </c>
       <c r="BF8" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.399000</v>
+        <v>-229.399</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>39732.953953</v>
+        <v>39732.953952999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>11.036932</v>
       </c>
       <c r="BK8" s="1">
-        <v>1137.340000</v>
+        <v>1137.3399999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.430000</v>
+        <v>-367.43</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>39744.141194</v>
+        <v>39744.141194000003</v>
       </c>
       <c r="BO8" s="1">
         <v>11.040039</v>
       </c>
       <c r="BP8" s="1">
-        <v>1269.260000</v>
+        <v>1269.26</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-581.423000</v>
+        <v>-581.423</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>39754.577042</v>
+        <v>39754.577041999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>11.042938</v>
+        <v>11.042937999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1418.470000</v>
+        <v>1418.47</v>
       </c>
       <c r="BV8" s="1">
-        <v>-811.021000</v>
+        <v>-811.02099999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>39766.053478</v>
+        <v>39766.053478000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.046126</v>
+        <v>11.046125999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1581.980000</v>
+        <v>1581.98</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1050.560000</v>
+        <v>-1050.56</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>39777.622136</v>
+        <v>39777.622135999998</v>
       </c>
       <c r="CD8" s="1">
         <v>11.049339</v>
       </c>
       <c r="CE8" s="1">
-        <v>1996.420000</v>
+        <v>1996.42</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1610.770000</v>
+        <v>-1610.77</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>39606.009338</v>
+        <v>39606.009338000003</v>
       </c>
       <c r="B9" s="1">
         <v>11.001669</v>
       </c>
       <c r="C9" s="1">
-        <v>909.823000</v>
+        <v>909.82299999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-175.954000</v>
+        <v>-175.95400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>39616.442225</v>
+        <v>39616.442224999999</v>
       </c>
       <c r="G9" s="1">
         <v>11.004567</v>
       </c>
       <c r="H9" s="1">
-        <v>925.000000</v>
+        <v>925</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.782000</v>
+        <v>-150.78200000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>39626.918688</v>
+        <v>39626.918687999998</v>
       </c>
       <c r="L9" s="1">
         <v>11.007477</v>
       </c>
       <c r="M9" s="1">
-        <v>944.768000</v>
+        <v>944.76800000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-113.362000</v>
+        <v>-113.36199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>39637.374386</v>
+        <v>39637.374386000003</v>
       </c>
       <c r="Q9" s="1">
         <v>11.010382</v>
       </c>
       <c r="R9" s="1">
-        <v>952.004000</v>
+        <v>952.00400000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-100.537000</v>
+        <v>-100.53700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>39647.904420</v>
+        <v>39647.904419999999</v>
       </c>
       <c r="V9" s="1">
-        <v>11.013307</v>
+        <v>11.013306999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>959.661000</v>
+        <v>959.66099999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.699300</v>
+        <v>-88.699299999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>39658.381922</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.016217</v>
+        <v>11.016216999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>968.211000</v>
+        <v>968.21100000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.283600</v>
+        <v>-80.283600000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>39668.908541</v>
+        <v>39668.908540999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>11.019141</v>
+        <v>11.019140999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>973.749000</v>
+        <v>973.74900000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.194600</v>
+        <v>-80.194599999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>39679.408841</v>
+        <v>39679.408840999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.022058</v>
+        <v>11.022057999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>982.148000</v>
+        <v>982.14800000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.120000</v>
+        <v>-88.12</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>39690.430907</v>
+        <v>39690.430907000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>11.025120</v>
+        <v>11.025119999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>991.529000</v>
+        <v>991.529</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.138000</v>
+        <v>-103.13800000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>39701.145501</v>
+        <v>39701.145500999999</v>
       </c>
       <c r="AU9" s="1">
         <v>11.028096</v>
       </c>
       <c r="AV9" s="1">
-        <v>1003.030000</v>
+        <v>1003.03</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.851000</v>
+        <v>-124.851</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>39711.920082</v>
+        <v>39711.920081999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>11.031089</v>
       </c>
       <c r="BA9" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.745000</v>
+        <v>-143.745</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>39722.521568</v>
+        <v>39722.521567999996</v>
       </c>
       <c r="BE9" s="1">
         <v>11.034034</v>
       </c>
       <c r="BF9" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.388000</v>
+        <v>-229.38800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>39733.331410</v>
+        <v>39733.331409999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.037037</v>
       </c>
       <c r="BK9" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.386000</v>
+        <v>-367.38600000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>39744.844525</v>
       </c>
       <c r="BO9" s="1">
-        <v>11.040235</v>
+        <v>11.040234999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-581.545000</v>
+        <v>-581.54499999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>39755.311622</v>
+        <v>39755.311622000001</v>
       </c>
       <c r="BT9" s="1">
         <v>11.043142</v>
       </c>
       <c r="BU9" s="1">
-        <v>1418.360000</v>
+        <v>1418.36</v>
       </c>
       <c r="BV9" s="1">
-        <v>-811.110000</v>
+        <v>-811.11</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>39766.190344</v>
+        <v>39766.190344000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>11.046164</v>
+        <v>11.046163999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1581.890000</v>
+        <v>1581.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1050.530000</v>
+        <v>-1050.53</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>39777.855293</v>
+        <v>39777.855293000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>11.049404</v>
+        <v>11.049403999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1996.290000</v>
+        <v>1996.29</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1611.400000</v>
+        <v>-1611.4</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>39606.424986</v>
+        <v>39606.424985999998</v>
       </c>
       <c r="B10" s="1">
         <v>11.001785</v>
       </c>
       <c r="C10" s="1">
-        <v>909.839000</v>
+        <v>909.83900000000006</v>
       </c>
       <c r="D10" s="1">
-        <v>-176.034000</v>
+        <v>-176.03399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>39616.861308</v>
       </c>
       <c r="G10" s="1">
-        <v>11.004684</v>
+        <v>11.004683999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>925.336000</v>
+        <v>925.33600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.458000</v>
+        <v>-150.458</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>39627.194995</v>
+        <v>39627.194994999998</v>
       </c>
       <c r="L10" s="1">
-        <v>11.007554</v>
+        <v>11.007554000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>944.649000</v>
+        <v>944.649</v>
       </c>
       <c r="N10" s="1">
-        <v>-113.368000</v>
+        <v>-113.36799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>39637.723536</v>
+        <v>39637.723535999998</v>
       </c>
       <c r="Q10" s="1">
         <v>11.010479</v>
       </c>
       <c r="R10" s="1">
-        <v>951.998000</v>
+        <v>951.99800000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-100.526000</v>
+        <v>-100.526</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>39648.247155</v>
+        <v>39648.247154999997</v>
       </c>
       <c r="V10" s="1">
-        <v>11.013402</v>
+        <v>11.013401999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>959.680000</v>
+        <v>959.68</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.609200</v>
+        <v>-88.609200000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>39658.731093</v>
+        <v>39658.731093000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>11.016314</v>
+        <v>11.016313999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>968.109000</v>
+        <v>968.10900000000004</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.195500</v>
+        <v>-80.195499999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>39669.252727</v>
+        <v>39669.252726999999</v>
       </c>
       <c r="AF10" s="1">
         <v>11.019237</v>
       </c>
       <c r="AG10" s="1">
-        <v>973.719000</v>
+        <v>973.71900000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.133800</v>
+        <v>-80.133799999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>39680.104697</v>
+        <v>39680.104697000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.022251</v>
+        <v>11.022251000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>982.152000</v>
+        <v>982.15200000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.121300</v>
+        <v>-88.121300000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>39690.810359</v>
+        <v>39690.810359000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>11.025225</v>
+        <v>11.025225000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>991.555000</v>
+        <v>991.55499999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.151000</v>
+        <v>-103.151</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>39701.538318</v>
+        <v>39701.538317999999</v>
       </c>
       <c r="AU10" s="1">
         <v>11.028205</v>
       </c>
       <c r="AV10" s="1">
-        <v>1003.030000</v>
+        <v>1003.03</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>39712.297566</v>
+        <v>39712.297566000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.031194</v>
+        <v>11.031193999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1012.670000</v>
+        <v>1012.67</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.762000</v>
+        <v>-143.762</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>39722.884145</v>
+        <v>39722.884145000004</v>
       </c>
       <c r="BE10" s="1">
         <v>11.034134</v>
       </c>
       <c r="BF10" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.393000</v>
+        <v>-229.393</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>39734.035738</v>
+        <v>39734.035737999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>11.037232</v>
+        <v>11.037231999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1137.350000</v>
+        <v>1137.3499999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.389000</v>
+        <v>-367.38900000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>39744.957382</v>
+        <v>39744.957382000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.040266</v>
+        <v>11.040266000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1269.300000</v>
+        <v>1269.3</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-581.511000</v>
+        <v>-581.51099999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>39755.453445</v>
+        <v>39755.453444999999</v>
       </c>
       <c r="BT10" s="1">
         <v>11.043182</v>
       </c>
       <c r="BU10" s="1">
-        <v>1418.430000</v>
+        <v>1418.43</v>
       </c>
       <c r="BV10" s="1">
-        <v>-811.154000</v>
+        <v>-811.154</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>39766.613926</v>
+        <v>39766.613925999998</v>
       </c>
       <c r="BY10" s="1">
         <v>11.046282</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1581.920000</v>
+        <v>1581.92</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1050.570000</v>
+        <v>-1050.57</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>39778.374072</v>
+        <v>39778.374071999999</v>
       </c>
       <c r="CD10" s="1">
         <v>11.049548</v>
       </c>
       <c r="CE10" s="1">
-        <v>1997.790000</v>
+        <v>1997.79</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1612.060000</v>
+        <v>-1612.06</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>39606.724102</v>
       </c>
@@ -2794,13 +3210,13 @@
         <v>11.001868</v>
       </c>
       <c r="C11" s="1">
-        <v>909.908000</v>
+        <v>909.90800000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-176.004000</v>
+        <v>-176.00399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>39617.149524</v>
@@ -2809,270 +3225,270 @@
         <v>11.004764</v>
       </c>
       <c r="H11" s="1">
-        <v>924.936000</v>
+        <v>924.93600000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.821000</v>
+        <v>-150.821</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>39627.542158</v>
+        <v>39627.542157999997</v>
       </c>
       <c r="L11" s="1">
-        <v>11.007651</v>
+        <v>11.007650999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>944.421000</v>
+        <v>944.42100000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-113.317000</v>
+        <v>-113.31699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>39638.069780</v>
+        <v>39638.069779999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>11.010575</v>
+        <v>11.010574999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>951.953000</v>
+        <v>951.95299999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-100.498000</v>
+        <v>-100.498</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>39648.590914</v>
       </c>
       <c r="V11" s="1">
-        <v>11.013497</v>
+        <v>11.013496999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>959.657000</v>
+        <v>959.65700000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.641700</v>
+        <v>-88.6417</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>39659.426020</v>
+        <v>39659.426019999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>11.016507</v>
+        <v>11.016507000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>968.110000</v>
+        <v>968.11</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.230600</v>
+        <v>-80.230599999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>39669.945671</v>
+        <v>39669.945671000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>11.019429</v>
+        <v>11.019429000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.731000</v>
+        <v>973.73099999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.179100</v>
+        <v>-80.179100000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>39680.452888</v>
       </c>
       <c r="AK11" s="1">
-        <v>11.022348</v>
+        <v>11.022347999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>982.141000</v>
+        <v>982.14099999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.106500</v>
+        <v>-88.106499999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>39691.169978</v>
+        <v>39691.169977999998</v>
       </c>
       <c r="AP11" s="1">
         <v>11.025325</v>
       </c>
       <c r="AQ11" s="1">
-        <v>991.559000</v>
+        <v>991.55899999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.160000</v>
+        <v>-103.16</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>39701.904891</v>
+        <v>39701.904890999998</v>
       </c>
       <c r="AU11" s="1">
         <v>11.028307</v>
       </c>
       <c r="AV11" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.835000</v>
+        <v>-124.83499999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>39712.967134</v>
+        <v>39712.967133999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>11.031380</v>
+        <v>11.03138</v>
       </c>
       <c r="BA11" s="1">
-        <v>1012.700000</v>
+        <v>1012.7</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.735000</v>
+        <v>-143.73500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>39723.553247</v>
+        <v>39723.553247000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>11.034320</v>
+        <v>11.034319999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.404000</v>
+        <v>-229.404</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>39734.482129</v>
+        <v>39734.482129000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.037356</v>
+        <v>11.037356000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1137.360000</v>
+        <v>1137.3599999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.396000</v>
+        <v>-367.39600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>39745.382678</v>
+        <v>39745.382678000002</v>
       </c>
       <c r="BO11" s="1">
         <v>11.040384</v>
       </c>
       <c r="BP11" s="1">
-        <v>1269.250000</v>
+        <v>1269.25</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-581.508000</v>
+        <v>-581.50800000000004</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>39755.862181</v>
+        <v>39755.862180999997</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.043295</v>
+        <v>11.043295000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1418.420000</v>
+        <v>1418.42</v>
       </c>
       <c r="BV11" s="1">
-        <v>-811.135000</v>
+        <v>-811.13499999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>39767.038999</v>
+        <v>39767.038998999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>11.046400</v>
+        <v>11.0464</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1581.980000</v>
+        <v>1581.98</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1050.450000</v>
+        <v>-1050.45</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>39778.892391</v>
+        <v>39778.892391000001</v>
       </c>
       <c r="CD11" s="1">
         <v>11.049692</v>
       </c>
       <c r="CE11" s="1">
-        <v>1997.140000</v>
+        <v>1997.14</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1611.780000</v>
+        <v>-1611.78</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>39607.063835</v>
+        <v>39607.063835000001</v>
       </c>
       <c r="B12" s="1">
-        <v>11.001962</v>
+        <v>11.001962000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>909.612000</v>
+        <v>909.61199999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-176.140000</v>
+        <v>-176.14</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>39617.493709</v>
+        <v>39617.493709000002</v>
       </c>
       <c r="G12" s="1">
         <v>11.004859</v>
       </c>
       <c r="H12" s="1">
-        <v>923.790000</v>
+        <v>923.79</v>
       </c>
       <c r="I12" s="1">
-        <v>-151.415000</v>
+        <v>-151.41499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>39627.889358</v>
@@ -3081,193 +3497,193 @@
         <v>11.007747</v>
       </c>
       <c r="M12" s="1">
-        <v>944.744000</v>
+        <v>944.74400000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-113.144000</v>
+        <v>-113.14400000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>39638.767652</v>
+        <v>39638.767652000002</v>
       </c>
       <c r="Q12" s="1">
         <v>11.010769</v>
       </c>
       <c r="R12" s="1">
-        <v>952.013000</v>
+        <v>952.01300000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-100.451000</v>
+        <v>-100.45099999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>39649.278338</v>
+        <v>39649.278337999996</v>
       </c>
       <c r="V12" s="1">
         <v>11.013688</v>
       </c>
       <c r="W12" s="1">
-        <v>959.712000</v>
+        <v>959.71199999999999</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.632200</v>
+        <v>-88.632199999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>39659.762773</v>
+        <v>39659.762773000002</v>
       </c>
       <c r="AA12" s="1">
         <v>11.016601</v>
       </c>
       <c r="AB12" s="1">
-        <v>968.210000</v>
+        <v>968.21</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.301000</v>
+        <v>-80.301000000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>39670.283448</v>
+        <v>39670.283448000002</v>
       </c>
       <c r="AF12" s="1">
         <v>11.019523</v>
       </c>
       <c r="AG12" s="1">
-        <v>973.749000</v>
+        <v>973.74900000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.149400</v>
+        <v>-80.1494</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>39680.801080</v>
+        <v>39680.801079999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.022445</v>
+        <v>11.022444999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>982.136000</v>
+        <v>982.13599999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.099200</v>
+        <v>-88.099199999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>39691.835608</v>
+        <v>39691.835608000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.025510</v>
+        <v>11.025510000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>991.569000</v>
+        <v>991.56899999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.153000</v>
+        <v>-103.15300000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>39702.561067</v>
+        <v>39702.561067000002</v>
       </c>
       <c r="AU12" s="1">
         <v>11.028489</v>
       </c>
       <c r="AV12" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.847000</v>
+        <v>-124.84699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>39713.381327</v>
+        <v>39713.381327000003</v>
       </c>
       <c r="AZ12" s="1">
         <v>11.031495</v>
       </c>
       <c r="BA12" s="1">
-        <v>1012.690000</v>
+        <v>1012.69</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.737000</v>
+        <v>-143.73699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>39724.002659</v>
+        <v>39724.002658999998</v>
       </c>
       <c r="BE12" s="1">
         <v>11.034445</v>
       </c>
       <c r="BF12" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.389000</v>
+        <v>-229.38900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>39734.883856</v>
       </c>
       <c r="BJ12" s="1">
-        <v>11.037468</v>
+        <v>11.037468000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.437000</v>
+        <v>-367.43700000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>39745.779011</v>
+        <v>39745.779010999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.040494</v>
+        <v>11.040494000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-581.503000</v>
+        <v>-581.50300000000004</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>39756.289904</v>
+        <v>39756.289903999997</v>
       </c>
       <c r="BT12" s="1">
         <v>11.043414</v>
       </c>
       <c r="BU12" s="1">
-        <v>1418.370000</v>
+        <v>1418.37</v>
       </c>
       <c r="BV12" s="1">
-        <v>-811.129000</v>
+        <v>-811.12900000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>39767.456133</v>
@@ -3276,31 +3692,31 @@
         <v>11.046516</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1581.900000</v>
+        <v>1581.9</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1050.510000</v>
+        <v>-1050.51</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>39779.444475</v>
+        <v>39779.444474999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>11.049846</v>
+        <v>11.049846000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1996.360000</v>
+        <v>1996.36</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1611.310000</v>
+        <v>-1611.31</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>39607.407066</v>
       </c>
@@ -3308,163 +3724,163 @@
         <v>11.002058</v>
       </c>
       <c r="C13" s="1">
-        <v>909.528000</v>
+        <v>909.52800000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-176.047000</v>
+        <v>-176.047</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>39618.191082</v>
+        <v>39618.191081999998</v>
       </c>
       <c r="G13" s="1">
         <v>11.005053</v>
       </c>
       <c r="H13" s="1">
-        <v>923.089000</v>
+        <v>923.08900000000006</v>
       </c>
       <c r="I13" s="1">
-        <v>-151.940000</v>
+        <v>-151.94</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>39628.581772</v>
+        <v>39628.581771999998</v>
       </c>
       <c r="L13" s="1">
         <v>11.007939</v>
       </c>
       <c r="M13" s="1">
-        <v>944.606000</v>
+        <v>944.60599999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-113.370000</v>
+        <v>-113.37</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>39639.118817</v>
+        <v>39639.118817000002</v>
       </c>
       <c r="Q13" s="1">
         <v>11.010866</v>
       </c>
       <c r="R13" s="1">
-        <v>951.966000</v>
+        <v>951.96600000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-100.452000</v>
+        <v>-100.452</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>39649.618097</v>
+        <v>39649.618096999999</v>
       </c>
       <c r="V13" s="1">
         <v>11.013783</v>
       </c>
       <c r="W13" s="1">
-        <v>959.626000</v>
+        <v>959.62599999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.655000</v>
+        <v>-88.655000000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>39660.122867</v>
+        <v>39660.122866999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.016701</v>
+        <v>11.016700999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.168000</v>
+        <v>968.16800000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.225900</v>
+        <v>-80.225899999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>39670.628629</v>
+        <v>39670.628628999999</v>
       </c>
       <c r="AF13" s="1">
         <v>11.019619</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.722000</v>
+        <v>973.72199999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.162600</v>
+        <v>-80.162599999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>39681.460759</v>
+        <v>39681.460759000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>11.022628</v>
+        <v>11.022627999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>982.167000</v>
+        <v>982.16700000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.124800</v>
+        <v>-88.124799999999993</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>39692.249737</v>
+        <v>39692.249736999998</v>
       </c>
       <c r="AP13" s="1">
         <v>11.025625</v>
       </c>
       <c r="AQ13" s="1">
-        <v>991.546000</v>
+        <v>991.54600000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.160000</v>
+        <v>-103.16</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>39703.029787</v>
+        <v>39703.029786999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.028619</v>
+        <v>11.028619000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>39713.757756</v>
+        <v>39713.757755999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>11.031599</v>
       </c>
       <c r="BA13" s="1">
-        <v>1012.690000</v>
+        <v>1012.69</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.731000</v>
+        <v>-143.73099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>39724.362255</v>
@@ -3473,13 +3889,13 @@
         <v>11.034545</v>
       </c>
       <c r="BF13" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.378000</v>
+        <v>-229.37799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>39735.256879</v>
@@ -3488,105 +3904,105 @@
         <v>11.037571</v>
       </c>
       <c r="BK13" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.383000</v>
+        <v>-367.38299999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>39746.202600</v>
+        <v>39746.202599999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.040612</v>
+        <v>11.040611999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-581.528000</v>
+        <v>-581.52800000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>39756.710836</v>
+        <v>39756.710835999998</v>
       </c>
       <c r="BT13" s="1">
         <v>11.043531</v>
       </c>
       <c r="BU13" s="1">
-        <v>1418.330000</v>
+        <v>1418.33</v>
       </c>
       <c r="BV13" s="1">
-        <v>-811.118000</v>
+        <v>-811.11800000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>39767.903524</v>
+        <v>39767.903524000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>11.046640</v>
+        <v>11.04664</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1581.870000</v>
+        <v>1581.87</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1050.650000</v>
+        <v>-1050.6500000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>39779.974165</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.049993</v>
+        <v>11.049993000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1997.740000</v>
+        <v>1997.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1611.730000</v>
+        <v>-1611.73</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>39608.090091</v>
+        <v>39608.090090999998</v>
       </c>
       <c r="B14" s="1">
-        <v>11.002247</v>
+        <v>11.002247000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>909.797000</v>
+        <v>909.79700000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-176.188000</v>
+        <v>-176.18799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>39618.529354</v>
+        <v>39618.529353999998</v>
       </c>
       <c r="G14" s="1">
-        <v>11.005147</v>
+        <v>11.005146999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>923.444000</v>
+        <v>923.44399999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-152.871000</v>
+        <v>-152.87100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>39628.926989</v>
@@ -3595,270 +4011,270 @@
         <v>11.008035</v>
       </c>
       <c r="M14" s="1">
-        <v>944.815000</v>
+        <v>944.81500000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-113.379000</v>
+        <v>-113.379</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>39639.468958</v>
+        <v>39639.468957999998</v>
       </c>
       <c r="Q14" s="1">
         <v>11.010964</v>
       </c>
       <c r="R14" s="1">
-        <v>952.005000</v>
+        <v>952.005</v>
       </c>
       <c r="S14" s="1">
-        <v>-100.494000</v>
+        <v>-100.494</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>39649.962320</v>
+        <v>39649.962319999999</v>
       </c>
       <c r="V14" s="1">
         <v>11.013878</v>
       </c>
       <c r="W14" s="1">
-        <v>959.596000</v>
+        <v>959.596</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.575800</v>
+        <v>-88.575800000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>39660.772626</v>
+        <v>39660.772625999998</v>
       </c>
       <c r="AA14" s="1">
         <v>11.016881</v>
       </c>
       <c r="AB14" s="1">
-        <v>968.221000</v>
+        <v>968.221</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.282800</v>
+        <v>-80.282799999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>39671.307156</v>
+        <v>39671.307156000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>11.019808</v>
+        <v>11.019807999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>973.765000</v>
+        <v>973.76499999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.151600</v>
+        <v>-80.151600000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>39681.848666</v>
+        <v>39681.848665999998</v>
       </c>
       <c r="AK14" s="1">
         <v>11.022736</v>
       </c>
       <c r="AL14" s="1">
-        <v>982.179000</v>
+        <v>982.17899999999997</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.121500</v>
+        <v>-88.121499999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>39692.633640</v>
+        <v>39692.63364</v>
       </c>
       <c r="AP14" s="1">
         <v>11.025732</v>
       </c>
       <c r="AQ14" s="1">
-        <v>991.552000</v>
+        <v>991.55200000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.145000</v>
+        <v>-103.145</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>39703.394856</v>
+        <v>39703.394855999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>11.028721</v>
+        <v>11.028721000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.864000</v>
+        <v>-124.864</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>39714.134717</v>
+        <v>39714.134717000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>11.031704</v>
       </c>
       <c r="BA14" s="1">
-        <v>1012.690000</v>
+        <v>1012.69</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.728000</v>
+        <v>-143.72800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>39724.726010</v>
+        <v>39724.726009999998</v>
       </c>
       <c r="BE14" s="1">
         <v>11.034646</v>
       </c>
       <c r="BF14" s="1">
-        <v>1057.900000</v>
+        <v>1057.9000000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.409000</v>
+        <v>-229.40899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>39735.674016</v>
+        <v>39735.674015999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>11.037687</v>
       </c>
       <c r="BK14" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.415000</v>
+        <v>-367.41500000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>39746.598370</v>
+        <v>39746.59837</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.040722</v>
+        <v>11.040722000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-581.483000</v>
+        <v>-581.48299999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>39757.121027</v>
+        <v>39757.121027000001</v>
       </c>
       <c r="BT14" s="1">
         <v>11.043645</v>
       </c>
       <c r="BU14" s="1">
-        <v>1418.350000</v>
+        <v>1418.35</v>
       </c>
       <c r="BV14" s="1">
-        <v>-811.119000</v>
+        <v>-811.11900000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>39768.320697</v>
+        <v>39768.320697000003</v>
       </c>
       <c r="BY14" s="1">
         <v>11.046756</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1581.950000</v>
+        <v>1581.95</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1050.560000</v>
+        <v>-1050.56</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>39780.491988</v>
+        <v>39780.491988000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>11.050137</v>
+        <v>11.050136999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1997.470000</v>
+        <v>1997.47</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1611.710000</v>
+        <v>-1611.71</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>39608.430313</v>
+        <v>39608.430312999997</v>
       </c>
       <c r="B15" s="1">
-        <v>11.002342</v>
+        <v>11.002342000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>909.991000</v>
+        <v>909.99099999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-175.797000</v>
+        <v>-175.797</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>39618.874601</v>
+        <v>39618.874601000003</v>
       </c>
       <c r="G15" s="1">
         <v>11.005243</v>
       </c>
       <c r="H15" s="1">
-        <v>923.395000</v>
+        <v>923.39499999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-152.164000</v>
+        <v>-152.16399999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>39629.273692</v>
+        <v>39629.273692000002</v>
       </c>
       <c r="L15" s="1">
         <v>11.008132</v>
       </c>
       <c r="M15" s="1">
-        <v>944.986000</v>
+        <v>944.98599999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-113.257000</v>
+        <v>-113.25700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>39640.126654</v>
@@ -3867,133 +4283,133 @@
         <v>11.011146</v>
       </c>
       <c r="R15" s="1">
-        <v>951.997000</v>
+        <v>951.99699999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-100.505000</v>
+        <v>-100.505</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>39650.622992</v>
+        <v>39650.622991999997</v>
       </c>
       <c r="V15" s="1">
-        <v>11.014062</v>
+        <v>11.014061999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>959.592000</v>
+        <v>959.59199999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.606400</v>
+        <v>-88.606399999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>39661.169921</v>
+        <v>39661.169921000001</v>
       </c>
       <c r="AA15" s="1">
         <v>11.016992</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.128000</v>
+        <v>968.12800000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.259600</v>
+        <v>-80.259600000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>39671.694531</v>
+        <v>39671.694531000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>11.019915</v>
+        <v>11.019914999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.729000</v>
+        <v>973.72900000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.213500</v>
+        <v>-80.213499999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>39682.195848</v>
+        <v>39682.195848000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.022832</v>
+        <v>11.022831999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>982.171000</v>
+        <v>982.17100000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.112500</v>
+        <v>-88.112499999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>39692.991255</v>
+        <v>39692.991255000001</v>
       </c>
       <c r="AP15" s="1">
         <v>11.025831</v>
       </c>
       <c r="AQ15" s="1">
-        <v>991.548000</v>
+        <v>991.548</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.170000</v>
+        <v>-103.17</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>39703.761882</v>
+        <v>39703.761881999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>11.028823</v>
+        <v>11.028822999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.849000</v>
+        <v>-124.849</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>39714.553867</v>
+        <v>39714.553867000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.031821</v>
+        <v>11.031821000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1012.700000</v>
+        <v>1012.7</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.740000</v>
+        <v>-143.74</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>39725.214850</v>
+        <v>39725.214849999997</v>
       </c>
       <c r="BE15" s="1">
         <v>11.034782</v>
       </c>
       <c r="BF15" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.403000</v>
+        <v>-229.40299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>39736.033615</v>
@@ -4002,135 +4418,135 @@
         <v>11.037787</v>
       </c>
       <c r="BK15" s="1">
-        <v>1137.360000</v>
+        <v>1137.3599999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.420000</v>
+        <v>-367.42</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>39747.017986</v>
+        <v>39747.017985999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.040838</v>
+        <v>11.040838000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-581.527000</v>
+        <v>-581.52700000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>39757.536179</v>
+        <v>39757.536179000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>11.043760</v>
+        <v>11.043760000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1418.370000</v>
+        <v>1418.37</v>
       </c>
       <c r="BV15" s="1">
-        <v>-811.131000</v>
+        <v>-811.13099999999997</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>39768.747746</v>
+        <v>39768.747746000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.046874</v>
+        <v>11.046874000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1581.950000</v>
+        <v>1581.95</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1050.590000</v>
+        <v>-1050.5899999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>39781.045523</v>
+        <v>39781.045523000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>11.050290</v>
+        <v>11.05029</v>
       </c>
       <c r="CE15" s="1">
-        <v>1996.460000</v>
+        <v>1996.46</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1611.550000</v>
+        <v>-1611.55</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>39608.773543</v>
+        <v>39608.773543000003</v>
       </c>
       <c r="B16" s="1">
         <v>11.002437</v>
       </c>
       <c r="C16" s="1">
-        <v>910.213000</v>
+        <v>910.21299999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-175.550000</v>
+        <v>-175.55</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>39619.523369</v>
+        <v>39619.523369000002</v>
       </c>
       <c r="G16" s="1">
         <v>11.005423</v>
       </c>
       <c r="H16" s="1">
-        <v>923.120000</v>
+        <v>923.12</v>
       </c>
       <c r="I16" s="1">
-        <v>-152.049000</v>
+        <v>-152.04900000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>39629.926427</v>
+        <v>39629.926426999999</v>
       </c>
       <c r="L16" s="1">
-        <v>11.008313</v>
+        <v>11.008312999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>944.594000</v>
+        <v>944.59400000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-113.370000</v>
+        <v>-113.37</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>39640.512541</v>
+        <v>39640.512540999996</v>
       </c>
       <c r="Q16" s="1">
         <v>11.011253</v>
       </c>
       <c r="R16" s="1">
-        <v>951.976000</v>
+        <v>951.976</v>
       </c>
       <c r="S16" s="1">
-        <v>-100.477000</v>
+        <v>-100.477</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>39650.994991</v>
@@ -4139,497 +4555,497 @@
         <v>11.014165</v>
       </c>
       <c r="W16" s="1">
-        <v>959.658000</v>
+        <v>959.65800000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.606000</v>
+        <v>-88.605999999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>39661.518610</v>
+        <v>39661.518609999999</v>
       </c>
       <c r="AA16" s="1">
         <v>11.017089</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.173000</v>
+        <v>968.173</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.320000</v>
+        <v>-80.319999999999993</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>39672.015940</v>
+        <v>39672.015939999997</v>
       </c>
       <c r="AF16" s="1">
         <v>11.020004</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.736000</v>
+        <v>973.73599999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.152500</v>
+        <v>-80.152500000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>39682.546998</v>
+        <v>39682.546997999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>11.022930</v>
+        <v>11.022930000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>982.170000</v>
+        <v>982.17</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.098700</v>
+        <v>-88.098699999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>39693.410407</v>
+        <v>39693.410407000003</v>
       </c>
       <c r="AP16" s="1">
         <v>11.025947</v>
       </c>
       <c r="AQ16" s="1">
-        <v>991.567000</v>
+        <v>991.56700000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.161000</v>
+        <v>-103.161</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>39704.180506</v>
+        <v>39704.180505999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>11.028939</v>
+        <v>11.028938999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.856000</v>
+        <v>-124.85599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>39714.852428</v>
+        <v>39714.852427999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>11.031903</v>
       </c>
       <c r="BA16" s="1">
-        <v>1012.690000</v>
+        <v>1012.69</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.759000</v>
+        <v>-143.75899999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>39725.443997</v>
+        <v>39725.443997000002</v>
       </c>
       <c r="BE16" s="1">
         <v>11.034846</v>
       </c>
       <c r="BF16" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.408000</v>
+        <v>-229.40799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>39736.409054</v>
+        <v>39736.409054000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.037891</v>
       </c>
       <c r="BK16" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.409000</v>
+        <v>-367.40899999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>39747.417265</v>
+        <v>39747.417264999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>11.040949</v>
+        <v>11.040948999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-581.512000</v>
+        <v>-581.51199999999994</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>39757.945875</v>
+        <v>39757.945874999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.043874</v>
+        <v>11.043874000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1418.350000</v>
+        <v>1418.35</v>
       </c>
       <c r="BV16" s="1">
-        <v>-811.158000</v>
+        <v>-811.15800000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>39769.194147</v>
+        <v>39769.194147000002</v>
       </c>
       <c r="BY16" s="1">
         <v>11.046998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1581.940000</v>
+        <v>1581.94</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1050.530000</v>
+        <v>-1050.53</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>39781.574754</v>
+        <v>39781.574754000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.050437</v>
+        <v>11.050437000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1998.030000</v>
+        <v>1998.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1612.010000</v>
+        <v>-1612.01</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>39609.418839</v>
+        <v>39609.418838999998</v>
       </c>
       <c r="B17" s="1">
         <v>11.002616</v>
       </c>
       <c r="C17" s="1">
-        <v>910.348000</v>
+        <v>910.34799999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.793000</v>
+        <v>-175.79300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>39619.908730</v>
+        <v>39619.908730000003</v>
       </c>
       <c r="G17" s="1">
-        <v>11.005530</v>
+        <v>11.00553</v>
       </c>
       <c r="H17" s="1">
-        <v>922.915000</v>
+        <v>922.91499999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-152.294000</v>
+        <v>-152.29400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>39630.313306</v>
+        <v>39630.313305999996</v>
       </c>
       <c r="L17" s="1">
-        <v>11.008420</v>
+        <v>11.008419999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>944.614000</v>
+        <v>944.61400000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-113.295000</v>
+        <v>-113.295</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>39640.860238</v>
+        <v>39640.860238000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.011350</v>
+        <v>11.01135</v>
       </c>
       <c r="R17" s="1">
-        <v>951.970000</v>
+        <v>951.97</v>
       </c>
       <c r="S17" s="1">
-        <v>-100.451000</v>
+        <v>-100.45099999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>39651.341212</v>
+        <v>39651.341211999999</v>
       </c>
       <c r="V17" s="1">
-        <v>11.014261</v>
+        <v>11.014260999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>959.610000</v>
+        <v>959.61</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.509600</v>
+        <v>-88.509600000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>39661.865850</v>
+        <v>39661.865850000002</v>
       </c>
       <c r="AA17" s="1">
         <v>11.017185</v>
       </c>
       <c r="AB17" s="1">
-        <v>968.181000</v>
+        <v>968.18100000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.304900</v>
+        <v>-80.304900000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>39672.429106</v>
+        <v>39672.429106000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>11.020119</v>
+        <v>11.020118999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>973.722000</v>
+        <v>973.72199999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.145300</v>
+        <v>-80.145300000000006</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>39682.973061</v>
+        <v>39682.973060999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>11.023048</v>
+        <v>11.023047999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>982.173000</v>
+        <v>982.173</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.095600</v>
+        <v>-88.095600000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>39693.712934</v>
+        <v>39693.712934000003</v>
       </c>
       <c r="AP17" s="1">
         <v>11.026031</v>
       </c>
       <c r="AQ17" s="1">
-        <v>991.581000</v>
+        <v>991.58100000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>39704.490536</v>
+        <v>39704.490535999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>11.029025</v>
+        <v>11.029025000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.844000</v>
+        <v>-124.84399999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>39715.212026</v>
+        <v>39715.212026000001</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.032003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.736000</v>
+        <v>-143.73599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>39725.810044</v>
+        <v>39725.810043999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.034947</v>
+        <v>11.034947000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.397000</v>
+        <v>-229.39699999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>39736.784029</v>
+        <v>39736.784029000002</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.037996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.424000</v>
+        <v>-367.42399999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>39747.835919</v>
+        <v>39747.835918999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>11.041066</v>
+        <v>11.041066000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-581.485000</v>
+        <v>-581.48500000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>39758.366947</v>
+        <v>39758.366947000002</v>
       </c>
       <c r="BT17" s="1">
         <v>11.043991</v>
       </c>
       <c r="BU17" s="1">
-        <v>1418.400000</v>
+        <v>1418.4</v>
       </c>
       <c r="BV17" s="1">
-        <v>-811.175000</v>
+        <v>-811.17499999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>39769.627124</v>
+        <v>39769.627123999999</v>
       </c>
       <c r="BY17" s="1">
         <v>11.047119</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1581.880000</v>
+        <v>1581.88</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1050.500000</v>
+        <v>-1050.5</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>39782.092118</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.050581</v>
+        <v>11.050580999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1998.200000</v>
+        <v>1998.2</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1610.460000</v>
+        <v>-1610.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>39609.800294</v>
+        <v>39609.800294000001</v>
       </c>
       <c r="B18" s="1">
         <v>11.002722</v>
       </c>
       <c r="C18" s="1">
-        <v>910.324000</v>
+        <v>910.32399999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.824000</v>
+        <v>-175.82400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>39620.252952</v>
+        <v>39620.252952000003</v>
       </c>
       <c r="G18" s="1">
-        <v>11.005626</v>
+        <v>11.005625999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>923.281000</v>
+        <v>923.28099999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-152.258000</v>
+        <v>-152.25800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>39630.658026</v>
+        <v>39630.658025999997</v>
       </c>
       <c r="L18" s="1">
         <v>11.008516</v>
       </c>
       <c r="M18" s="1">
-        <v>944.590000</v>
+        <v>944.59</v>
       </c>
       <c r="N18" s="1">
-        <v>-113.330000</v>
+        <v>-113.33</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>39641.209916</v>
@@ -4638,133 +5054,133 @@
         <v>11.011447</v>
       </c>
       <c r="R18" s="1">
-        <v>952.006000</v>
+        <v>952.00599999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-100.460000</v>
+        <v>-100.46</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>39651.690879</v>
+        <v>39651.690879000002</v>
       </c>
       <c r="V18" s="1">
-        <v>11.014359</v>
+        <v>11.014359000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>959.547000</v>
+        <v>959.54700000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.548500</v>
+        <v>-88.548500000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>39662.287440</v>
+        <v>39662.28744</v>
       </c>
       <c r="AA18" s="1">
-        <v>11.017302</v>
+        <v>11.017302000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>968.240000</v>
+        <v>968.24</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.289700</v>
+        <v>-80.289699999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>39672.716786</v>
+        <v>39672.716785999997</v>
       </c>
       <c r="AF18" s="1">
         <v>11.020199</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.745000</v>
+        <v>973.745</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.163600</v>
+        <v>-80.163600000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>39683.253829</v>
+        <v>39683.253829000001</v>
       </c>
       <c r="AK18" s="1">
         <v>11.023126</v>
       </c>
       <c r="AL18" s="1">
-        <v>982.160000</v>
+        <v>982.16</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.077800</v>
+        <v>-88.077799999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>39694.071079</v>
+        <v>39694.071079000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>11.026131</v>
+        <v>11.026130999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>991.560000</v>
+        <v>991.56</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.158000</v>
+        <v>-103.158</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>39704.853080</v>
+        <v>39704.853080000001</v>
       </c>
       <c r="AU18" s="1">
         <v>11.029126</v>
       </c>
       <c r="AV18" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.857000</v>
+        <v>-124.857</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>39715.571131</v>
+        <v>39715.571130999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.032103</v>
+        <v>11.032102999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1012.690000</v>
+        <v>1012.69</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.725000</v>
+        <v>-143.72499999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>39726.530267</v>
+        <v>39726.530267000002</v>
       </c>
       <c r="BE18" s="1">
         <v>11.035147</v>
       </c>
       <c r="BF18" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.401000</v>
+        <v>-229.40100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>39737.533486</v>
@@ -4773,333 +5189,333 @@
         <v>11.038204</v>
       </c>
       <c r="BK18" s="1">
-        <v>1137.340000</v>
+        <v>1137.3399999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.389000</v>
+        <v>-367.38900000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>39748.234671</v>
+        <v>39748.234670999998</v>
       </c>
       <c r="BO18" s="1">
         <v>11.041176</v>
       </c>
       <c r="BP18" s="1">
-        <v>1269.260000</v>
+        <v>1269.26</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-581.505000</v>
+        <v>-581.505</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>39758.801938</v>
+        <v>39758.801937999997</v>
       </c>
       <c r="BT18" s="1">
         <v>11.044112</v>
       </c>
       <c r="BU18" s="1">
-        <v>1418.280000</v>
+        <v>1418.28</v>
       </c>
       <c r="BV18" s="1">
-        <v>-811.253000</v>
+        <v>-811.25300000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>39770.049254</v>
+        <v>39770.049253999998</v>
       </c>
       <c r="BY18" s="1">
         <v>11.047236</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1581.990000</v>
+        <v>1581.99</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1050.650000</v>
+        <v>-1050.6500000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>39782.928833</v>
+        <v>39782.928832999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>11.050814</v>
+        <v>11.050814000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1997.020000</v>
+        <v>1997.02</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1610.470000</v>
+        <v>-1610.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>39610.142005</v>
+        <v>39610.142005000002</v>
       </c>
       <c r="B19" s="1">
         <v>11.002817</v>
       </c>
       <c r="C19" s="1">
-        <v>910.239000</v>
+        <v>910.23900000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-175.820000</v>
+        <v>-175.82</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>39620.597703</v>
+        <v>39620.597702999999</v>
       </c>
       <c r="G19" s="1">
         <v>11.005722</v>
       </c>
       <c r="H19" s="1">
-        <v>923.219000</v>
+        <v>923.21900000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-152.387000</v>
+        <v>-152.387</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>39631.000762</v>
+        <v>39631.000762000003</v>
       </c>
       <c r="L19" s="1">
         <v>11.008611</v>
       </c>
       <c r="M19" s="1">
-        <v>944.650000</v>
+        <v>944.65</v>
       </c>
       <c r="N19" s="1">
-        <v>-113.254000</v>
+        <v>-113.254</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>39641.633315</v>
+        <v>39641.633314999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>11.011565</v>
+        <v>11.011564999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>952.015000</v>
+        <v>952.01499999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-100.444000</v>
+        <v>-100.444</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>39652.102558</v>
+        <v>39652.102557999999</v>
       </c>
       <c r="V19" s="1">
-        <v>11.014473</v>
+        <v>11.014473000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>959.560000</v>
+        <v>959.56</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.532500</v>
+        <v>-88.532499999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>39662.569632</v>
+        <v>39662.569631999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>11.017380</v>
+        <v>11.017379999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>968.135000</v>
+        <v>968.13499999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.367700</v>
+        <v>-80.367699999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>39673.062002</v>
+        <v>39673.062001999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>11.020295</v>
+        <v>11.020295000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.762000</v>
+        <v>973.76199999999994</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.160400</v>
+        <v>-80.160399999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>39683.601988</v>
+        <v>39683.601988000002</v>
       </c>
       <c r="AK19" s="1">
         <v>11.023223</v>
       </c>
       <c r="AL19" s="1">
-        <v>982.148000</v>
+        <v>982.14800000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.109100</v>
+        <v>-88.109099999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>39694.434613</v>
+        <v>39694.434612999998</v>
       </c>
       <c r="AP19" s="1">
         <v>11.026232</v>
       </c>
       <c r="AQ19" s="1">
-        <v>991.579000</v>
+        <v>991.57899999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>39705.219624</v>
+        <v>39705.219623999998</v>
       </c>
       <c r="AU19" s="1">
         <v>11.029228</v>
       </c>
       <c r="AV19" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.846000</v>
+        <v>-124.846</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>39716.288346</v>
+        <v>39716.288346000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.032302</v>
       </c>
       <c r="BA19" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.738000</v>
+        <v>-143.738</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>39726.917612</v>
+        <v>39726.917611999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>11.035255</v>
+        <v>11.035254999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.410000</v>
+        <v>-229.41</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>39737.910445</v>
+        <v>39737.910445000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>11.038308</v>
+        <v>11.038308000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1137.390000</v>
+        <v>1137.3900000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.382000</v>
+        <v>-367.38200000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>39748.653792</v>
+        <v>39748.653791999997</v>
       </c>
       <c r="BO19" s="1">
         <v>11.041293</v>
       </c>
       <c r="BP19" s="1">
-        <v>1269.300000</v>
+        <v>1269.3</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-581.533000</v>
+        <v>-581.53300000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>39759.227040</v>
+        <v>39759.227039999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>11.044230</v>
+        <v>11.044230000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1418.400000</v>
+        <v>1418.4</v>
       </c>
       <c r="BV19" s="1">
-        <v>-811.230000</v>
+        <v>-811.23</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>39770.779329</v>
+        <v>39770.779328999997</v>
       </c>
       <c r="BY19" s="1">
-        <v>11.047439</v>
+        <v>11.047439000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1582.140000</v>
+        <v>1582.14</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>39783.157984</v>
+        <v>39783.157983999998</v>
       </c>
       <c r="CD19" s="1">
         <v>11.050877</v>
       </c>
       <c r="CE19" s="1">
-        <v>1997.520000</v>
+        <v>1997.52</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1611.830000</v>
+        <v>-1611.83</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>39610.484782</v>
       </c>
@@ -5107,495 +5523,495 @@
         <v>11.002912</v>
       </c>
       <c r="C20" s="1">
-        <v>910.587000</v>
+        <v>910.58699999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-175.654000</v>
+        <v>-175.654</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>39621.023736</v>
+        <v>39621.023736000003</v>
       </c>
       <c r="G20" s="1">
-        <v>11.005840</v>
+        <v>11.005839999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>923.152000</v>
+        <v>923.15200000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-151.960000</v>
+        <v>-151.96</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>39631.420874</v>
+        <v>39631.420874000003</v>
       </c>
       <c r="L20" s="1">
         <v>11.008728</v>
       </c>
       <c r="M20" s="1">
-        <v>944.689000</v>
+        <v>944.68899999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-113.138000</v>
+        <v>-113.13800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>39641.911757</v>
+        <v>39641.911757000002</v>
       </c>
       <c r="Q20" s="1">
         <v>11.011642</v>
       </c>
       <c r="R20" s="1">
-        <v>952.029000</v>
+        <v>952.029</v>
       </c>
       <c r="S20" s="1">
-        <v>-100.460000</v>
+        <v>-100.46</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>39652.394207</v>
+        <v>39652.394206999998</v>
       </c>
       <c r="V20" s="1">
         <v>11.014554</v>
       </c>
       <c r="W20" s="1">
-        <v>959.644000</v>
+        <v>959.64400000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.682400</v>
+        <v>-88.682400000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>39662.918849</v>
+        <v>39662.918849000002</v>
       </c>
       <c r="AA20" s="1">
         <v>11.017477</v>
       </c>
       <c r="AB20" s="1">
-        <v>968.195000</v>
+        <v>968.19500000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.225700</v>
+        <v>-80.225700000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>39673.404737</v>
+        <v>39673.404736999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.020390</v>
+        <v>11.020390000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>973.750000</v>
+        <v>973.75</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.162700</v>
+        <v>-80.162700000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>39683.952164</v>
+        <v>39683.952164000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>11.023320</v>
+        <v>11.02332</v>
       </c>
       <c r="AL20" s="1">
-        <v>982.142000</v>
+        <v>982.14200000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.106000</v>
+        <v>-88.105999999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>39695.156326</v>
+        <v>39695.156325999997</v>
       </c>
       <c r="AP20" s="1">
         <v>11.026432</v>
       </c>
       <c r="AQ20" s="1">
-        <v>991.554000</v>
+        <v>991.55399999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.172000</v>
+        <v>-103.172</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>39705.945311</v>
+        <v>39705.945311000003</v>
       </c>
       <c r="AU20" s="1">
         <v>11.029429</v>
       </c>
       <c r="AV20" s="1">
-        <v>1003.030000</v>
+        <v>1003.03</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.861000</v>
+        <v>-124.861</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>39716.647449</v>
+        <v>39716.647448999996</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.032402</v>
+        <v>11.032401999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1012.690000</v>
+        <v>1012.69</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.726000</v>
+        <v>-143.726</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>39727.299040</v>
+        <v>39727.299039999998</v>
       </c>
       <c r="BE20" s="1">
         <v>11.035361</v>
       </c>
       <c r="BF20" s="1">
-        <v>1057.900000</v>
+        <v>1057.9000000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.401000</v>
+        <v>-229.40100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>39738.283436</v>
+        <v>39738.283435999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>11.038412</v>
+        <v>11.038411999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.409000</v>
+        <v>-367.40899999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>39749.362109</v>
+        <v>39749.362109000002</v>
       </c>
       <c r="BO20" s="1">
         <v>11.041489</v>
       </c>
       <c r="BP20" s="1">
-        <v>1269.260000</v>
+        <v>1269.26</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-581.552000</v>
+        <v>-581.55200000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>39759.944224</v>
+        <v>39759.944223999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.044429</v>
+        <v>11.044428999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1418.330000</v>
+        <v>1418.33</v>
       </c>
       <c r="BV20" s="1">
-        <v>-811.182000</v>
+        <v>-811.18200000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>39770.898405</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.047472</v>
+        <v>11.047472000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1581.940000</v>
+        <v>1581.94</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1050.570000</v>
+        <v>-1050.57</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>39783.692672</v>
+        <v>39783.692671999997</v>
       </c>
       <c r="CD20" s="1">
         <v>11.051026</v>
       </c>
       <c r="CE20" s="1">
-        <v>1998.080000</v>
+        <v>1998.08</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1610.080000</v>
+        <v>-1610.08</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>39610.904356</v>
+        <v>39610.904355999999</v>
       </c>
       <c r="B21" s="1">
         <v>11.003029</v>
       </c>
       <c r="C21" s="1">
-        <v>910.700000</v>
+        <v>910.7</v>
       </c>
       <c r="D21" s="1">
-        <v>-175.593000</v>
+        <v>-175.59299999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>39621.302488</v>
+        <v>39621.302488000001</v>
       </c>
       <c r="G21" s="1">
         <v>11.005917</v>
       </c>
       <c r="H21" s="1">
-        <v>923.201000</v>
+        <v>923.20100000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-151.856000</v>
+        <v>-151.85599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>39631.710537</v>
+        <v>39631.710536999999</v>
       </c>
       <c r="L21" s="1">
         <v>11.008808</v>
       </c>
       <c r="M21" s="1">
-        <v>944.678000</v>
+        <v>944.678</v>
       </c>
       <c r="N21" s="1">
-        <v>-113.421000</v>
+        <v>-113.42100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>39642.260972</v>
+        <v>39642.260971999996</v>
       </c>
       <c r="Q21" s="1">
         <v>11.011739</v>
       </c>
       <c r="R21" s="1">
-        <v>952.001000</v>
+        <v>952.00099999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-100.462000</v>
+        <v>-100.462</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>39652.736941</v>
+        <v>39652.736941000003</v>
       </c>
       <c r="V21" s="1">
         <v>11.014649</v>
       </c>
       <c r="W21" s="1">
-        <v>959.614000</v>
+        <v>959.61400000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.554600</v>
+        <v>-88.554599999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>39663.270480</v>
+        <v>39663.270479999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>11.017575</v>
+        <v>11.017575000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.201000</v>
+        <v>968.20100000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.229300</v>
+        <v>-80.229299999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>39674.092226</v>
+        <v>39674.092226000001</v>
       </c>
       <c r="AF21" s="1">
         <v>11.020581</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.772000</v>
+        <v>973.77200000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.169700</v>
+        <v>-80.169700000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>39684.648050</v>
+        <v>39684.648050000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.023513</v>
+        <v>11.023512999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>982.141000</v>
+        <v>982.14099999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.105700</v>
+        <v>-88.105699999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>39695.515894</v>
+        <v>39695.515893999996</v>
       </c>
       <c r="AP21" s="1">
         <v>11.026532</v>
       </c>
       <c r="AQ21" s="1">
-        <v>991.575000</v>
+        <v>991.57500000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.178000</v>
+        <v>-103.178</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>39706.336151</v>
+        <v>39706.336151000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>11.029538</v>
+        <v>11.029538000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>39717.007085</v>
+        <v>39717.007084999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>11.032502</v>
+        <v>11.032501999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1012.710000</v>
+        <v>1012.71</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.737000</v>
+        <v>-143.73699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>39727.964706</v>
+        <v>39727.964705999999</v>
       </c>
       <c r="BE21" s="1">
         <v>11.035546</v>
       </c>
       <c r="BF21" s="1">
-        <v>1057.940000</v>
+        <v>1057.94</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.426000</v>
+        <v>-229.42599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>39738.970891</v>
+        <v>39738.970890999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.038603</v>
       </c>
       <c r="BK21" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.399000</v>
+        <v>-367.399</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>39749.490373</v>
+        <v>39749.490373000001</v>
       </c>
       <c r="BO21" s="1">
         <v>11.041525</v>
       </c>
       <c r="BP21" s="1">
-        <v>1269.240000</v>
+        <v>1269.24</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.503000</v>
+        <v>-581.50300000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>39760.070207</v>
+        <v>39760.070206999997</v>
       </c>
       <c r="BT21" s="1">
         <v>11.044464</v>
       </c>
       <c r="BU21" s="1">
-        <v>1418.330000</v>
+        <v>1418.33</v>
       </c>
       <c r="BV21" s="1">
-        <v>-811.120000</v>
+        <v>-811.12</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>39771.344304</v>
+        <v>39771.344303999998</v>
       </c>
       <c r="BY21" s="1">
         <v>11.047596</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1581.920000</v>
+        <v>1581.92</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1050.430000</v>
+        <v>-1050.43</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>39784.232848</v>
@@ -5604,16 +6020,16 @@
         <v>11.051176</v>
       </c>
       <c r="CE21" s="1">
-        <v>1996.750000</v>
+        <v>1996.75</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1611.890000</v>
+        <v>-1611.89</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>39611.185588</v>
       </c>
@@ -5621,1009 +6037,1009 @@
         <v>11.003107</v>
       </c>
       <c r="C22" s="1">
-        <v>910.584000</v>
+        <v>910.58399999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-175.676000</v>
+        <v>-175.67599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>39621.649190</v>
+        <v>39621.649189999996</v>
       </c>
       <c r="G22" s="1">
         <v>11.006014</v>
       </c>
       <c r="H22" s="1">
-        <v>923.668000</v>
+        <v>923.66800000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-151.890000</v>
+        <v>-151.88999999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>39632.058728</v>
+        <v>39632.058728000004</v>
       </c>
       <c r="L22" s="1">
         <v>11.008905</v>
       </c>
       <c r="M22" s="1">
-        <v>944.606000</v>
+        <v>944.60599999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-113.517000</v>
+        <v>-113.517</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>39642.610618</v>
+        <v>39642.610617999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>11.011836</v>
+        <v>11.011836000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.957000</v>
+        <v>951.95699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-100.501000</v>
+        <v>-100.501</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>39653.080173</v>
+        <v>39653.080173000002</v>
       </c>
       <c r="V22" s="1">
         <v>11.014744</v>
       </c>
       <c r="W22" s="1">
-        <v>959.643000</v>
+        <v>959.64300000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.581400</v>
+        <v>-88.581400000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>39663.961933</v>
+        <v>39663.961932999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.017767</v>
+        <v>11.017766999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>968.170000</v>
+        <v>968.17</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.283700</v>
+        <v>-80.283699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>39674.433473</v>
+        <v>39674.433472999997</v>
       </c>
       <c r="AF22" s="1">
         <v>11.020676</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.730000</v>
+        <v>973.73</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.175200</v>
+        <v>-80.175200000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>39684.997235</v>
+        <v>39684.997235000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>11.023610</v>
+        <v>11.02361</v>
       </c>
       <c r="AL22" s="1">
-        <v>982.151000</v>
+        <v>982.15099999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.109500</v>
+        <v>-88.109499999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>39695.875989</v>
       </c>
       <c r="AP22" s="1">
-        <v>11.026632</v>
+        <v>11.026631999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>991.559000</v>
+        <v>991.55899999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.150000</v>
+        <v>-103.15</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>39706.703157</v>
+        <v>39706.703157000004</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.029640</v>
+        <v>11.029640000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>39717.672711</v>
+        <v>39717.672710999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.032687</v>
+        <v>11.032686999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1012.680000</v>
+        <v>1012.68</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.724000</v>
+        <v>-143.72399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>39728.383290</v>
+        <v>39728.383289999998</v>
       </c>
       <c r="BE22" s="1">
         <v>11.035662</v>
       </c>
       <c r="BF22" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.403000</v>
+        <v>-229.40299999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>39739.412858</v>
+        <v>39739.412858000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.038726</v>
       </c>
       <c r="BK22" s="1">
-        <v>1137.350000</v>
+        <v>1137.3499999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.416000</v>
+        <v>-367.416</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>39749.898289</v>
+        <v>39749.898288999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>11.041638</v>
+        <v>11.041638000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-581.525000</v>
+        <v>-581.52499999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>39760.509204</v>
+        <v>39760.509204000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.044586</v>
+        <v>11.044586000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1418.370000</v>
+        <v>1418.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-811.220000</v>
+        <v>-811.22</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>39771.774303</v>
+        <v>39771.774302999998</v>
       </c>
       <c r="BY22" s="1">
         <v>11.047715</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1581.840000</v>
+        <v>1581.84</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1050.650000</v>
+        <v>-1050.6500000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>39784.773454</v>
+        <v>39784.773454000002</v>
       </c>
       <c r="CD22" s="1">
         <v>11.051326</v>
       </c>
       <c r="CE22" s="1">
-        <v>1998.510000</v>
+        <v>1998.51</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1610.590000</v>
+        <v>-1610.59</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>39611.524356</v>
+        <v>39611.524356000002</v>
       </c>
       <c r="B23" s="1">
-        <v>11.003201</v>
+        <v>11.003201000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>910.631000</v>
+        <v>910.63099999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-175.828000</v>
+        <v>-175.828</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>39621.991429</v>
+        <v>39621.991429000002</v>
       </c>
       <c r="G23" s="1">
         <v>11.006109</v>
       </c>
       <c r="H23" s="1">
-        <v>922.803000</v>
+        <v>922.803</v>
       </c>
       <c r="I23" s="1">
-        <v>-152.355000</v>
+        <v>-152.35499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>39632.402455</v>
+        <v>39632.402455000003</v>
       </c>
       <c r="L23" s="1">
         <v>11.009001</v>
       </c>
       <c r="M23" s="1">
-        <v>944.643000</v>
+        <v>944.64300000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-113.337000</v>
+        <v>-113.337</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>39643.304553</v>
+        <v>39643.304553000002</v>
       </c>
       <c r="Q23" s="1">
         <v>11.012029</v>
       </c>
       <c r="R23" s="1">
-        <v>951.993000</v>
+        <v>951.99300000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-100.481000</v>
+        <v>-100.48099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>39653.767628</v>
+        <v>39653.767628000001</v>
       </c>
       <c r="V23" s="1">
-        <v>11.014935</v>
+        <v>11.014934999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>959.599000</v>
+        <v>959.59900000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.617700</v>
+        <v>-88.617699999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>39664.313087</v>
+        <v>39664.313087000002</v>
       </c>
       <c r="AA23" s="1">
         <v>11.017865</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.240000</v>
+        <v>968.24</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.232500</v>
+        <v>-80.232500000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>39674.780144</v>
+        <v>39674.780143999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.020772</v>
+        <v>11.020771999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.749000</v>
+        <v>973.74900000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.171300</v>
+        <v>-80.171300000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>39685.347906</v>
+        <v>39685.347906000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>11.023708</v>
+        <v>11.023707999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>982.175000</v>
+        <v>982.17499999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.110400</v>
+        <v>-88.110399999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>39696.542613</v>
+        <v>39696.542612999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.026817</v>
+        <v>11.026816999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>991.557000</v>
+        <v>991.55700000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.159000</v>
+        <v>-103.15900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>39707.560902</v>
+        <v>39707.560901999997</v>
       </c>
       <c r="AU23" s="1">
         <v>11.029878</v>
       </c>
       <c r="AV23" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.848000</v>
+        <v>-124.848</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>39718.083368</v>
       </c>
       <c r="AZ23" s="1">
-        <v>11.032801</v>
+        <v>11.032800999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1012.710000</v>
+        <v>1012.71</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.744000</v>
+        <v>-143.744</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>39728.774173</v>
+        <v>39728.774172999998</v>
       </c>
       <c r="BE23" s="1">
         <v>11.035771</v>
       </c>
       <c r="BF23" s="1">
-        <v>1057.920000</v>
+        <v>1057.92</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.413000</v>
+        <v>-229.41300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>39739.789817</v>
+        <v>39739.789816999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>11.038831</v>
       </c>
       <c r="BK23" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.404000</v>
+        <v>-367.404</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>39750.296540</v>
+        <v>39750.296540000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.041749</v>
+        <v>11.041748999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-581.541000</v>
+        <v>-581.54100000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>39760.937246</v>
+        <v>39760.937246000001</v>
       </c>
       <c r="BT23" s="1">
         <v>11.044705</v>
       </c>
       <c r="BU23" s="1">
-        <v>1418.320000</v>
+        <v>1418.32</v>
       </c>
       <c r="BV23" s="1">
-        <v>-811.219000</v>
+        <v>-811.21900000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>39772.205337</v>
+        <v>39772.205336999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.047835</v>
+        <v>11.047834999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1581.970000</v>
+        <v>1581.97</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1050.540000</v>
+        <v>-1050.54</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>39785.309135</v>
+        <v>39785.309135000003</v>
       </c>
       <c r="CD23" s="1">
         <v>11.051475</v>
       </c>
       <c r="CE23" s="1">
-        <v>1996.340000</v>
+        <v>1996.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1610.480000</v>
+        <v>-1610.48</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>39611.867091</v>
       </c>
       <c r="B24" s="1">
-        <v>11.003296</v>
+        <v>11.003296000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>910.893000</v>
+        <v>910.89300000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.988000</v>
+        <v>-175.988</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>39622.680406</v>
+        <v>39622.680405999999</v>
       </c>
       <c r="G24" s="1">
-        <v>11.006300</v>
+        <v>11.0063</v>
       </c>
       <c r="H24" s="1">
-        <v>923.206000</v>
+        <v>923.20600000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-152.566000</v>
+        <v>-152.566</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>39633.096888</v>
       </c>
       <c r="L24" s="1">
-        <v>11.009194</v>
+        <v>11.009194000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>944.748000</v>
+        <v>944.74800000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-113.353000</v>
+        <v>-113.35299999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>39643.656682</v>
+        <v>39643.656682000001</v>
       </c>
       <c r="Q24" s="1">
         <v>11.012127</v>
       </c>
       <c r="R24" s="1">
-        <v>952.033000</v>
+        <v>952.03300000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-100.495000</v>
+        <v>-100.495</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>39654.111357</v>
+        <v>39654.111357000002</v>
       </c>
       <c r="V24" s="1">
         <v>11.015031</v>
       </c>
       <c r="W24" s="1">
-        <v>959.578000</v>
+        <v>959.57799999999997</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.632700</v>
+        <v>-88.6327</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>39664.662750</v>
+        <v>39664.662750000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.017962</v>
+        <v>11.017962000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>968.151000</v>
+        <v>968.15099999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.215600</v>
+        <v>-80.215599999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>39675.437839</v>
+        <v>39675.437838999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.020955</v>
+        <v>11.020955000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.747000</v>
+        <v>973.74699999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.193300</v>
+        <v>-80.193299999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>39686.007090</v>
+        <v>39686.007089999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.023891</v>
+        <v>11.023891000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>982.163000</v>
+        <v>982.16300000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.114000</v>
+        <v>-88.114000000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>39696.985042</v>
       </c>
       <c r="AP24" s="1">
-        <v>11.026940</v>
+        <v>11.02694</v>
       </c>
       <c r="AQ24" s="1">
-        <v>991.575000</v>
+        <v>991.57500000000005</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.167000</v>
+        <v>-103.167</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>39707.841974</v>
+        <v>39707.841974000003</v>
       </c>
       <c r="AU24" s="1">
         <v>11.029956</v>
       </c>
       <c r="AV24" s="1">
-        <v>1003.020000</v>
+        <v>1003.02</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.850000</v>
+        <v>-124.85</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>39718.468263</v>
+        <v>39718.468263000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.032908</v>
+        <v>11.032908000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1012.720000</v>
+        <v>1012.72</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>39729.132247</v>
+        <v>39729.132247000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.035870</v>
+        <v>11.035869999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1057.910000</v>
+        <v>1057.9100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.397000</v>
+        <v>-229.39699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>39740.162778</v>
+        <v>39740.162777999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>11.038934</v>
+        <v>11.038933999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.400000</v>
+        <v>-367.4</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>39750.717148</v>
+        <v>39750.717148000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>11.041866</v>
+        <v>11.041866000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1269.260000</v>
+        <v>1269.26</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-581.501000</v>
+        <v>-581.50099999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>39761.774991</v>
+        <v>39761.774990999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>11.044937</v>
+        <v>11.044936999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1418.290000</v>
+        <v>1418.29</v>
       </c>
       <c r="BV24" s="1">
-        <v>-811.236000</v>
+        <v>-811.23599999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>39772.618992</v>
+        <v>39772.618992000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.047950</v>
+        <v>11.04795</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1581.930000</v>
+        <v>1581.93</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1050.620000</v>
+        <v>-1050.6199999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>39785.851758</v>
+        <v>39785.851757999997</v>
       </c>
       <c r="CD24" s="1">
         <v>11.051625</v>
       </c>
       <c r="CE24" s="1">
-        <v>1997.770000</v>
+        <v>1997.77</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1612.170000</v>
+        <v>-1612.17</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>39612.550580</v>
+        <v>39612.550580000003</v>
       </c>
       <c r="B25" s="1">
-        <v>11.003486</v>
+        <v>11.003486000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>911.006000</v>
+        <v>911.00599999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-176.064000</v>
+        <v>-176.06399999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>39623.023636</v>
+        <v>39623.023635999998</v>
       </c>
       <c r="G25" s="1">
-        <v>11.006395</v>
+        <v>11.006394999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>923.125000</v>
+        <v>923.125</v>
       </c>
       <c r="I25" s="1">
-        <v>-152.228000</v>
+        <v>-152.22800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>39633.443596</v>
+        <v>39633.443595999997</v>
       </c>
       <c r="L25" s="1">
-        <v>11.009290</v>
+        <v>11.00929</v>
       </c>
       <c r="M25" s="1">
-        <v>944.654000</v>
+        <v>944.654</v>
       </c>
       <c r="N25" s="1">
-        <v>-113.231000</v>
+        <v>-113.23099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>39644.005368</v>
+        <v>39644.005367999998</v>
       </c>
       <c r="Q25" s="1">
         <v>11.012224</v>
       </c>
       <c r="R25" s="1">
-        <v>952.026000</v>
+        <v>952.02599999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-100.486000</v>
+        <v>-100.486</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>39654.764623</v>
+        <v>39654.764623000003</v>
       </c>
       <c r="V25" s="1">
         <v>11.015212</v>
       </c>
       <c r="W25" s="1">
-        <v>959.619000</v>
+        <v>959.61900000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.645000</v>
+        <v>-88.644999999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>39665.319452</v>
+        <v>39665.319452000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>11.018144</v>
+        <v>11.018143999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.213000</v>
+        <v>968.21299999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.278300</v>
+        <v>-80.278300000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>39675.817278</v>
+        <v>39675.817278000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.021060</v>
+        <v>11.02106</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.725000</v>
+        <v>973.72500000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.175200</v>
+        <v>-80.175200000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>39686.393474</v>
+        <v>39686.393473999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>11.023998</v>
+        <v>11.023998000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>982.155000</v>
+        <v>982.15499999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.097500</v>
+        <v>-88.097499999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>39697.345634</v>
+        <v>39697.345633999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.027040</v>
+        <v>11.02704</v>
       </c>
       <c r="AQ25" s="1">
-        <v>991.591000</v>
+        <v>991.59100000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.184000</v>
+        <v>-103.184</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>39708.206035</v>
+        <v>39708.206035000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.030057</v>
+        <v>11.030056999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.865000</v>
+        <v>-124.86499999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>39718.829350</v>
+        <v>39718.82935</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.033008</v>
+        <v>11.033008000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1012.710000</v>
+        <v>1012.71</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.712000</v>
+        <v>-143.71199999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>39729.548900</v>
+        <v>39729.548900000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>11.035986</v>
+        <v>11.035985999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1057.930000</v>
+        <v>1057.93</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.407000</v>
+        <v>-229.40700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>39740.584377</v>
+        <v>39740.584376999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>11.039051</v>
+        <v>11.039051000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1137.330000</v>
+        <v>1137.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.416000</v>
+        <v>-367.416</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>39751.113948</v>
+        <v>39751.113947999998</v>
       </c>
       <c r="BO25" s="1">
         <v>11.041976</v>
       </c>
       <c r="BP25" s="1">
-        <v>1269.290000</v>
+        <v>1269.29</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-581.528000</v>
+        <v>-581.52800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>39762.210941</v>
+        <v>39762.210940999998</v>
       </c>
       <c r="BT25" s="1">
         <v>11.045059</v>
       </c>
       <c r="BU25" s="1">
-        <v>1418.370000</v>
+        <v>1418.37</v>
       </c>
       <c r="BV25" s="1">
-        <v>-811.228000</v>
+        <v>-811.22799999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>39773.045054</v>
+        <v>39773.045054000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>11.048068</v>
+        <v>11.048068000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1581.930000</v>
+        <v>1581.93</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1050.570000</v>
+        <v>-1050.57</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>39786.392925</v>
@@ -6632,90 +7048,90 @@
         <v>11.051776</v>
       </c>
       <c r="CE25" s="1">
-        <v>1997.810000</v>
+        <v>1997.81</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1609.750000</v>
+        <v>-1609.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>39612.891826</v>
+        <v>39612.891825999999</v>
       </c>
       <c r="B26" s="1">
-        <v>11.003581</v>
+        <v>11.003581000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>910.889000</v>
+        <v>910.88900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-176.142000</v>
+        <v>-176.142</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>39623.366836</v>
+        <v>39623.366836000001</v>
       </c>
       <c r="G26" s="1">
         <v>11.006491</v>
       </c>
       <c r="H26" s="1">
-        <v>923.046000</v>
+        <v>923.04600000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-152.551000</v>
+        <v>-152.55099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>39633.788774</v>
+        <v>39633.788774000001</v>
       </c>
       <c r="L26" s="1">
-        <v>11.009386</v>
+        <v>11.009385999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>944.766000</v>
+        <v>944.76599999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-113.494000</v>
+        <v>-113.494</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>39644.661575</v>
+        <v>39644.661574999998</v>
       </c>
       <c r="Q26" s="1">
         <v>11.012406</v>
       </c>
       <c r="R26" s="1">
-        <v>952.012000</v>
+        <v>952.01199999999994</v>
       </c>
       <c r="S26" s="1">
-        <v>-100.512000</v>
+        <v>-100.512</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>39655.143563</v>
+        <v>39655.143562999998</v>
       </c>
       <c r="V26" s="1">
-        <v>11.015318</v>
+        <v>11.015318000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>959.661000</v>
+        <v>959.66099999999994</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.625500</v>
+        <v>-88.625500000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>39665.710797</v>
@@ -6724,180 +7140,181 @@
         <v>11.018253</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.279000</v>
+        <v>968.279</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.247100</v>
+        <v>-80.247100000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>39676.163560</v>
+        <v>39676.163560000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>11.021157</v>
+        <v>11.021157000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.768000</v>
+        <v>973.76800000000003</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.196500</v>
+        <v>-80.1965</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>39686.741168</v>
       </c>
       <c r="AK26" s="1">
-        <v>11.024095</v>
+        <v>11.024095000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>982.143000</v>
+        <v>982.14300000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.117100</v>
+        <v>-88.117099999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>39697.705729</v>
+        <v>39697.705729000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>11.027140</v>
+        <v>11.027139999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.573000</v>
+        <v>991.57299999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.152000</v>
+        <v>-103.152</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>39708.631144</v>
+        <v>39708.631143999999</v>
       </c>
       <c r="AU26" s="1">
         <v>11.030175</v>
       </c>
       <c r="AV26" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.857000</v>
+        <v>-124.857</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>39719.247974</v>
+        <v>39719.247973999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.033124</v>
+        <v>11.033124000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1012.710000</v>
+        <v>1012.71</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.760000</v>
+        <v>-143.76</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>39729.860407</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.036072</v>
+        <v>11.036072000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1057.950000</v>
+        <v>1057.95</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.383000</v>
+        <v>-229.38300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>39740.934553</v>
+        <v>39740.934552999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>11.039148</v>
+        <v>11.039148000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1137.370000</v>
+        <v>1137.3699999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.380000</v>
+        <v>-367.38</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>39751.534058</v>
+        <v>39751.534057999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>11.042093</v>
+        <v>11.042092999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.561000</v>
+        <v>-581.56100000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>39762.640019</v>
+        <v>39762.640018999999</v>
       </c>
       <c r="BT26" s="1">
         <v>11.045178</v>
       </c>
       <c r="BU26" s="1">
-        <v>1418.350000</v>
+        <v>1418.35</v>
       </c>
       <c r="BV26" s="1">
-        <v>-811.164000</v>
+        <v>-811.16399999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>39773.461695</v>
+        <v>39773.461694999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>11.048184</v>
+        <v>11.048183999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1581.930000</v>
+        <v>1581.93</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1050.670000</v>
+        <v>-1050.67</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>39786.933036</v>
+        <v>39786.933036000002</v>
       </c>
       <c r="CD26" s="1">
         <v>11.051926</v>
       </c>
       <c r="CE26" s="1">
-        <v>1996.630000</v>
+        <v>1996.63</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1611.790000</v>
+        <v>-1611.79</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>